--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1306,54 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1710,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1680,8 +1729,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1696,13 +1748,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1717,13 +1773,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1738,13 +1798,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1764,8 +1828,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1780,13 +1848,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1801,13 +1873,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1822,13 +1898,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1848,8 +1928,12 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1864,13 +1948,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1885,13 +1973,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1906,13 +1998,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1927,13 +2023,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1948,13 +2048,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1969,13 +2073,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1990,13 +2098,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2011,13 +2123,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2032,13 +2148,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2053,13 +2173,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2074,13 +2198,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2100,8 +2228,12 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2116,13 +2248,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2137,13 +2273,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2158,13 +2298,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2179,13 +2323,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2205,8 +2353,12 @@
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2221,13 +2373,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2242,13 +2398,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2268,8 +2428,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2284,13 +2448,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2305,13 +2473,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2326,13 +2498,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2347,13 +2523,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2368,13 +2548,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2389,13 +2573,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2415,8 +2603,12 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2431,13 +2623,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2452,13 +2648,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2478,8 +2678,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2494,13 +2698,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2520,8 +2728,12 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2541,8 +2753,12 @@
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2557,13 +2773,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2578,13 +2798,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2604,8 +2828,12 @@
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2620,13 +2848,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2641,13 +2873,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2662,13 +2898,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2683,13 +2923,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2704,13 +2948,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2725,13 +2973,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2746,13 +2998,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2767,13 +3023,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2788,13 +3048,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2814,8 +3078,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2830,13 +3098,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2851,13 +3123,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2872,13 +3148,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2893,13 +3173,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2919,8 +3203,12 @@
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2935,13 +3223,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2961,8 +3253,12 @@
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2977,13 +3273,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -2998,13 +3298,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3024,8 +3328,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3040,13 +3348,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3066,8 +3378,12 @@
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3082,13 +3398,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3103,13 +3423,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3129,8 +3453,12 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3145,13 +3473,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3171,8 +3503,12 @@
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3187,13 +3523,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3208,13 +3548,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3229,13 +3573,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3250,13 +3598,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3271,13 +3623,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3292,13 +3648,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3318,8 +3678,12 @@
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3334,13 +3698,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3355,13 +3723,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3376,13 +3748,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3397,13 +3773,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3418,13 +3798,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3439,13 +3823,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3460,13 +3848,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3481,13 +3873,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3502,13 +3898,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3523,13 +3923,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3544,13 +3948,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3565,13 +3973,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3591,8 +4003,12 @@
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3607,13 +4023,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3633,8 +4053,12 @@
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3649,13 +4073,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3670,13 +4098,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3696,8 +4128,12 @@
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,13 +4148,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3733,13 +4173,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3754,13 +4198,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,10 +4223,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3835,14 +4287,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-5547-9250</v>
+        <v>010-3526-4446</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,7 +4309,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-1685-9159</v>
+        <v>010-1460-5560</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
@@ -3879,14 +4331,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7201-4225</v>
+        <v>010-8286-6628</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3901,14 +4353,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9268-5718</v>
+        <v>010-8237-8806</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3923,14 +4375,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1946-2284</v>
+        <v>010-8109-3246</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3945,14 +4397,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0662-0607</v>
+        <v>010-9415-5410</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,14 +4419,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1973-3735</v>
+        <v>010-8307-2102</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3989,7 +4441,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9079-9859</v>
+        <v>010-7710-0055</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4011,14 +4463,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5635-2719</v>
+        <v>010-1766-4481</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4033,14 +4485,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6957-9262</v>
+        <v>010-9718-6265</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4055,14 +4507,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1565-6857</v>
+        <v>010-6653-7690</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4077,14 +4529,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3386-9908</v>
+        <v>010-1471-6873</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4099,14 +4551,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7376-8550</v>
+        <v>010-7381-5110</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4121,14 +4573,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3478-9903</v>
+        <v>010-8259-3262</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4143,14 +4595,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2332-5210</v>
+        <v>010-7706-4549</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4165,14 +4617,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1837-5475</v>
+        <v>010-2592-2468</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4187,7 +4639,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7540-8279</v>
+        <v>010-2927-3886</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
@@ -4209,7 +4661,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1962-1609</v>
+        <v>010-1048-6956</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
@@ -4231,14 +4683,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6979-4766</v>
+        <v>010-6671-6677</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4253,14 +4705,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5796-6357</v>
+        <v>010-8986-4466</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4275,14 +4727,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8962-6007</v>
+        <v>010-0962-2336</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4297,14 +4749,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0149-9683</v>
+        <v>010-0346-4601</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4319,14 +4771,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2603-4054</v>
+        <v>010-9238-8666</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4341,14 +4793,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3394-3417</v>
+        <v>010-6520-9023</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4363,14 +4815,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1278-6516</v>
+        <v>010-3070-9368</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4385,7 +4837,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0316-7342</v>
+        <v>010-2302-4118</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
@@ -4407,14 +4859,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9621-8212</v>
+        <v>010-4576-7799</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4429,14 +4881,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6502-6351</v>
+        <v>010-7691-8813</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4451,14 +4903,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3624-4205</v>
+        <v>010-5684-0162</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4473,14 +4925,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6546-7670</v>
+        <v>010-5077-2264</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4495,14 +4947,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5933-2679</v>
+        <v>010-6521-2784</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4517,14 +4969,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7292-5982</v>
+        <v>010-9962-9032</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4539,7 +4991,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3658-3679</v>
+        <v>010-1624-3266</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -4561,14 +5013,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3104-9850</v>
+        <v>010-4686-9810</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4583,7 +5035,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7844-7258</v>
+        <v>010-2104-6813</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
@@ -4605,7 +5057,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0513-7459</v>
+        <v>010-6269-4006</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
@@ -4627,7 +5079,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4505-9163</v>
+        <v>010-4579-2078</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
@@ -4649,14 +5101,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7890-9142</v>
+        <v>010-2350-2292</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4671,14 +5123,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6174-0812</v>
+        <v>010-1834-8066</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4693,7 +5145,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7169-2406</v>
+        <v>010-3586-4782</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4715,14 +5167,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2569-8008</v>
+        <v>010-2940-5701</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4737,14 +5189,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7728-6157</v>
+        <v>010-2879-5140</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4759,14 +5211,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9556-7040</v>
+        <v>010-8761-5432</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4781,14 +5233,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0601-8604</v>
+        <v>010-2805-6565</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4803,7 +5255,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8818-9993</v>
+        <v>010-8806-1021</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
@@ -4825,14 +5277,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9710-9238</v>
+        <v>010-3170-4895</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4847,14 +5299,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9504-4076</v>
+        <v>010-8098-6759</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4869,14 +5321,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8494-3140</v>
+        <v>010-5514-9522</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4891,14 +5343,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2587-2087</v>
+        <v>010-5029-9618</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4913,14 +5365,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5102-2478</v>
+        <v>010-8126-5435</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4935,7 +5387,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7956-0510</v>
+        <v>010-3075-9649</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -4957,7 +5409,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1713-1477</v>
+        <v>010-8479-3277</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
@@ -4979,14 +5431,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7196-5651</v>
+        <v>010-6654-3535</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5001,14 +5453,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7866-8914</v>
+        <v>010-7339-4771</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5023,14 +5475,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4234-9041</v>
+        <v>010-9977-9422</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5045,14 +5497,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0945-3712</v>
+        <v>010-5934-3942</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5067,14 +5519,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6380-2528</v>
+        <v>010-9090-6073</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5089,14 +5541,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1529-5458</v>
+        <v>010-2363-2373</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5111,7 +5563,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8773-8222</v>
+        <v>010-9969-8663</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
@@ -5133,14 +5585,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5996-5979</v>
+        <v>010-5932-3739</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5155,14 +5607,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4541-4307</v>
+        <v>010-2815-8405</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5177,7 +5629,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4282-5697</v>
+        <v>010-7356-0587</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -5199,7 +5651,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7301-9490</v>
+        <v>010-2670-3967</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5221,14 +5673,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4282-1037</v>
+        <v>010-7372-3265</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5243,14 +5695,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6325-6713</v>
+        <v>010-1066-4457</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5265,7 +5717,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-1766-4811</v>
+        <v>010-6375-9023</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
@@ -5287,14 +5739,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5886-9372</v>
+        <v>010-7490-9322</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5309,14 +5761,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4260-1869</v>
+        <v>010-6614-2532</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5331,14 +5783,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9066-9404</v>
+        <v>010-9185-5234</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5353,14 +5805,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0416-0118</v>
+        <v>010-9302-2612</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5375,14 +5827,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6617-1352</v>
+        <v>010-2056-8670</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5397,14 +5849,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2926-4890</v>
+        <v>010-0513-0462</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5419,7 +5871,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1398-6297</v>
+        <v>010-6062-1329</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
@@ -5441,14 +5893,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5042-1964</v>
+        <v>010-2798-0055</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5463,14 +5915,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8244-1673</v>
+        <v>010-7715-6214</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5485,14 +5937,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7523-6157</v>
+        <v>010-2764-5376</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5507,14 +5959,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6170-0228</v>
+        <v>010-1647-3351</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5529,7 +5981,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8643-7370</v>
+        <v>010-4493-5025</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -5551,14 +6003,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1973-8285</v>
+        <v>010-3268-3271</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5573,14 +6025,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3614-4082</v>
+        <v>010-2339-9985</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5595,14 +6047,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0186-4381</v>
+        <v>010-1593-2878</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5617,14 +6069,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6620-2073</v>
+        <v>010-3271-8662</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5639,14 +6091,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3686-8074</v>
+        <v>010-1305-0684</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5661,7 +6113,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0994-9071</v>
+        <v>010-8214-5836</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -5683,14 +6135,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8704-3179</v>
+        <v>010-3769-9293</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5705,14 +6157,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9249-9062</v>
+        <v>010-0875-4969</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5727,7 +6179,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3534-1608</v>
+        <v>010-2032-3482</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
@@ -5749,7 +6201,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0939-1787</v>
+        <v>010-8336-4160</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -5771,14 +6223,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5375-8494</v>
+        <v>010-4008-9086</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5793,14 +6245,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9412-6452</v>
+        <v>010-2084-6551</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5815,14 +6267,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1003-9536</v>
+        <v>010-6672-5622</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5837,14 +6289,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4177-0322</v>
+        <v>010-5431-6635</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5859,7 +6311,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7133-8090</v>
+        <v>010-4391-0843</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -5881,7 +6333,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0866-7303</v>
+        <v>010-2386-0856</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -5903,7 +6355,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4845-7783</v>
+        <v>010-9499-6805</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -5925,14 +6377,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8856-2558</v>
+        <v>010-8958-2451</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5947,7 +6399,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9599-2544</v>
+        <v>010-3008-2646</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -5969,14 +6421,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3994-0857</v>
+        <v>010-0290-7793</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5991,7 +6443,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5901-4441</v>
+        <v>010-5864-4826</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
@@ -6013,14 +6465,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9979-9300</v>
+        <v>010-6959-2790</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6035,371 +6487,2602 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>83</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>93</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>78</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A6">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="445">
   <si>
     <t>국어국문</t>
   </si>
@@ -1354,6 +1354,90 @@
   </si>
   <si>
     <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장보고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1696,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1773,13 +1857,13 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1804,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1823,13 +1907,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1848,13 +1932,13 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1879,7 +1963,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1898,13 +1982,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1923,13 +2007,13 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1954,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1973,13 +2057,13 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1998,13 +2082,13 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2029,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2054,7 +2138,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2073,13 +2157,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2104,7 +2188,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2123,13 +2207,13 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2148,13 +2232,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2179,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2204,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2229,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2248,13 +2332,13 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2273,13 +2357,13 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2304,7 +2388,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2329,7 +2413,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2354,7 +2438,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2373,13 +2457,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2398,13 +2482,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2423,13 +2507,13 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2454,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2479,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2498,13 +2582,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2523,13 +2607,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2548,13 +2632,13 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2579,7 +2663,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2598,13 +2682,13 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2623,13 +2707,13 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2648,13 +2732,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2673,13 +2757,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2698,13 +2782,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2729,7 +2813,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2748,13 +2832,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2773,13 +2857,13 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2798,13 +2882,13 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2829,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2854,7 +2938,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2873,13 +2957,13 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2898,13 +2982,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2923,13 +3007,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2954,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2979,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2998,13 +3082,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3023,13 +3107,13 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3054,7 +3138,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3073,13 +3157,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3098,13 +3182,13 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3123,13 +3207,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3148,13 +3232,13 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3179,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3198,13 +3282,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3223,13 +3307,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3254,7 +3338,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3273,13 +3357,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3298,13 +3382,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3329,7 +3413,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3354,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3379,7 +3463,7 @@
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3398,13 +3482,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3423,13 +3507,13 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3454,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3473,13 +3557,13 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3498,13 +3582,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3523,13 +3607,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3548,13 +3632,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3573,13 +3657,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3598,13 +3682,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3623,13 +3707,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3648,13 +3732,13 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3679,7 +3763,7 @@
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3704,7 +3788,7 @@
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3723,13 +3807,13 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3748,13 +3832,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3773,13 +3857,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3798,13 +3882,13 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3823,13 +3907,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3848,13 +3932,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3879,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3898,13 +3982,13 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3923,13 +4007,13 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3948,13 +4032,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3979,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3998,13 +4082,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4029,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4048,13 +4132,13 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4073,13 +4157,13 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4104,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4123,13 +4207,13 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4148,13 +4232,13 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4179,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4198,13 +4282,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4223,13 +4307,13 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4287,14 +4371,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3526-4446</v>
+        <v>010-0441-2278</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4309,14 +4393,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-1460-5560</v>
+        <v>010-0213-2000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4331,14 +4415,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8286-6628</v>
+        <v>010-8352-8415</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4353,14 +4437,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8237-8806</v>
+        <v>010-4123-1950</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4375,14 +4459,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8109-3246</v>
+        <v>010-3432-5952</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4397,14 +4481,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9415-5410</v>
+        <v>010-8207-7691</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4419,14 +4503,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8307-2102</v>
+        <v>010-1713-3714</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4441,7 +4525,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7710-0055</v>
+        <v>010-4881-2943</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4463,7 +4547,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1766-4481</v>
+        <v>010-3857-6400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
@@ -4485,14 +4569,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9718-6265</v>
+        <v>010-6784-6881</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4507,14 +4591,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6653-7690</v>
+        <v>010-6286-9743</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4529,14 +4613,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1471-6873</v>
+        <v>010-4933-8867</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4551,7 +4635,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7381-5110</v>
+        <v>010-3782-1325</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
@@ -4573,14 +4657,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8259-3262</v>
+        <v>010-4649-2519</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4595,14 +4679,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7706-4549</v>
+        <v>010-5912-9477</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4617,14 +4701,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2592-2468</v>
+        <v>010-0930-4140</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4639,14 +4723,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2927-3886</v>
+        <v>010-2202-9442</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4661,14 +4745,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1048-6956</v>
+        <v>010-2752-1804</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4683,14 +4767,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6671-6677</v>
+        <v>010-6184-9482</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4705,7 +4789,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8986-4466</v>
+        <v>010-6322-2503</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4727,14 +4811,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0962-2336</v>
+        <v>010-2152-1608</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4749,14 +4833,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0346-4601</v>
+        <v>010-5119-6433</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4771,14 +4855,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9238-8666</v>
+        <v>010-1238-9796</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4793,7 +4877,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6520-9023</v>
+        <v>010-3220-9572</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
@@ -4815,14 +4899,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3070-9368</v>
+        <v>010-3827-9335</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4837,14 +4921,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2302-4118</v>
+        <v>010-9263-9717</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4859,14 +4943,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4576-7799</v>
+        <v>010-5093-6516</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4881,14 +4965,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7691-8813</v>
+        <v>010-6581-9690</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4903,14 +4987,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5684-0162</v>
+        <v>010-9790-0739</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4925,14 +5009,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5077-2264</v>
+        <v>010-7640-7201</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4947,14 +5031,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6521-2784</v>
+        <v>010-6751-9592</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4969,14 +5053,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9962-9032</v>
+        <v>010-5740-5666</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4991,14 +5075,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1624-3266</v>
+        <v>010-7246-4099</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5013,14 +5097,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4686-9810</v>
+        <v>010-8795-4204</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5035,14 +5119,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2104-6813</v>
+        <v>010-5008-6001</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5057,14 +5141,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6269-4006</v>
+        <v>010-8794-2693</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5079,14 +5163,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4579-2078</v>
+        <v>010-4780-7082</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5101,7 +5185,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2350-2292</v>
+        <v>010-0427-1942</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5123,14 +5207,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1834-8066</v>
+        <v>010-0553-8095</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5145,14 +5229,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3586-4782</v>
+        <v>010-5547-3181</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5167,14 +5251,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2940-5701</v>
+        <v>010-7385-6669</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5189,7 +5273,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2879-5140</v>
+        <v>010-9985-0941</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
@@ -5211,14 +5295,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8761-5432</v>
+        <v>010-4670-9103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5233,14 +5317,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2805-6565</v>
+        <v>010-5526-1405</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5255,14 +5339,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8806-1021</v>
+        <v>010-9159-6736</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5277,7 +5361,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3170-4895</v>
+        <v>010-4832-5553</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
@@ -5299,14 +5383,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8098-6759</v>
+        <v>010-1125-0436</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5321,14 +5405,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5514-9522</v>
+        <v>010-6115-5710</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5343,7 +5427,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5029-9618</v>
+        <v>010-6316-3246</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
@@ -5365,14 +5449,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8126-5435</v>
+        <v>010-3923-7299</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5387,14 +5471,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3075-9649</v>
+        <v>010-5027-7118</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5409,14 +5493,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8479-3277</v>
+        <v>010-8654-1121</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5431,7 +5515,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6654-3535</v>
+        <v>010-6231-9453</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5453,14 +5537,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7339-4771</v>
+        <v>010-0713-0539</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5475,7 +5559,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9977-9422</v>
+        <v>010-1843-1435</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5497,14 +5581,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5934-3942</v>
+        <v>010-2318-6716</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5519,7 +5603,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9090-6073</v>
+        <v>010-7992-5531</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
@@ -5541,14 +5625,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2363-2373</v>
+        <v>010-0869-8379</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5563,7 +5647,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9969-8663</v>
+        <v>010-8320-6369</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
@@ -5585,7 +5669,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5932-3739</v>
+        <v>010-7137-0744</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5607,14 +5691,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2815-8405</v>
+        <v>010-5519-0603</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5629,7 +5713,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7356-0587</v>
+        <v>010-8285-3233</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -5651,14 +5735,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2670-3967</v>
+        <v>010-2187-3311</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5673,14 +5757,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7372-3265</v>
+        <v>010-0741-1701</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5695,14 +5779,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1066-4457</v>
+        <v>010-9773-9903</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5717,14 +5801,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6375-9023</v>
+        <v>010-9374-1255</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5739,14 +5823,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7490-9322</v>
+        <v>010-1126-4018</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5761,7 +5845,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6614-2532</v>
+        <v>010-2707-0321</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5783,14 +5867,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9185-5234</v>
+        <v>010-9621-5378</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5805,14 +5889,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9302-2612</v>
+        <v>010-3449-4559</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5827,14 +5911,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2056-8670</v>
+        <v>010-4412-3626</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5849,14 +5933,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0513-0462</v>
+        <v>010-1645-9671</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5871,14 +5955,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6062-1329</v>
+        <v>010-2043-0493</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5893,14 +5977,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2798-0055</v>
+        <v>010-1000-9183</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5915,7 +5999,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7715-6214</v>
+        <v>010-7821-8401</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5937,14 +6021,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2764-5376</v>
+        <v>010-4835-9445</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5959,14 +6043,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1647-3351</v>
+        <v>010-7674-1371</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5981,14 +6065,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4493-5025</v>
+        <v>010-7809-4176</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6003,14 +6087,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3268-3271</v>
+        <v>010-9361-5156</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6025,14 +6109,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2339-9985</v>
+        <v>010-7772-3018</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6047,14 +6131,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1593-2878</v>
+        <v>010-1229-3231</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6069,14 +6153,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3271-8662</v>
+        <v>010-0288-0200</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6091,7 +6175,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1305-0684</v>
+        <v>010-1432-9068</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -6113,7 +6197,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8214-5836</v>
+        <v>010-5232-1842</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -6135,14 +6219,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3769-9293</v>
+        <v>010-5523-4059</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6157,14 +6241,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0875-4969</v>
+        <v>010-4819-1389</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6179,14 +6263,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2032-3482</v>
+        <v>010-4230-5214</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6201,14 +6285,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8336-4160</v>
+        <v>010-5112-0080</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6223,14 +6307,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4008-9086</v>
+        <v>010-4332-2775</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6245,14 +6329,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2084-6551</v>
+        <v>010-5218-2610</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6267,14 +6351,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6672-5622</v>
+        <v>010-5570-5910</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6289,14 +6373,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5431-6635</v>
+        <v>010-6758-6953</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6311,14 +6395,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4391-0843</v>
+        <v>010-0158-3275</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6333,7 +6417,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2386-0856</v>
+        <v>010-6190-9332</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -6355,14 +6439,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9499-6805</v>
+        <v>010-0304-4768</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6377,7 +6461,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8958-2451</v>
+        <v>010-2770-8931</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -6399,7 +6483,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3008-2646</v>
+        <v>010-2187-0113</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -6421,14 +6505,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0290-7793</v>
+        <v>010-3141-4059</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6443,14 +6527,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5864-4826</v>
+        <v>010-2303-5015</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6465,14 +6549,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6959-2790</v>
+        <v>010-0926-0310</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6524,23 +6608,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6548,24 +6632,24 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>95</v>
+        <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>54</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,23 +6658,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6599,19 +6683,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
@@ -6624,23 +6708,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,23 +6733,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6674,23 +6758,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,19 +6787,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6724,23 +6808,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6749,23 +6833,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6774,23 +6858,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6799,23 +6883,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6824,23 +6908,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6849,23 +6933,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6874,23 +6958,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6899,23 +6983,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6924,23 +7008,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6949,23 +7033,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6974,23 +7058,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6999,23 +7083,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
         <v>91</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7024,23 +7108,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7049,19 +7133,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
-      </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
@@ -7074,23 +7158,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7099,23 +7183,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7124,23 +7208,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7149,23 +7233,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7174,23 +7258,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7199,23 +7283,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
         <v>91</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7224,23 +7308,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7249,23 +7333,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
         <v>87</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,23 +7358,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7299,23 +7383,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7324,23 +7408,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7349,23 +7433,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7374,23 +7458,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
-      </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7399,23 +7483,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7424,23 +7508,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7449,23 +7533,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
         <v>70</v>
       </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
-      </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7474,23 +7558,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
         <v>96</v>
       </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7499,23 +7583,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7524,23 +7608,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7549,23 +7633,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7574,23 +7658,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7599,23 +7683,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7624,23 +7708,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7649,23 +7733,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7674,23 +7758,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7699,23 +7783,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7724,23 +7808,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7749,23 +7833,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7774,7 +7858,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
@@ -7782,15 +7866,15 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7799,23 +7883,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7824,23 +7908,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7849,23 +7933,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7874,23 +7958,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7899,23 +7983,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7924,23 +8008,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7949,23 +8033,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7974,23 +8058,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7999,23 +8083,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8024,11 +8108,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
@@ -8036,11 +8120,11 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8049,23 +8133,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8074,23 +8158,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8099,23 +8183,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8124,23 +8208,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8149,23 +8233,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8174,23 +8258,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8199,23 +8283,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8224,23 +8308,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8249,23 +8333,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8274,23 +8358,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8299,23 +8383,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8324,23 +8408,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8349,23 +8433,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8374,23 +8458,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8399,23 +8483,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8424,23 +8508,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8449,23 +8533,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8474,23 +8558,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8499,23 +8583,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8524,23 +8608,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8549,23 +8633,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8574,23 +8658,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8599,23 +8683,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8624,23 +8708,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8649,23 +8733,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8678,19 +8762,19 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8699,23 +8783,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8724,23 +8808,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8749,23 +8833,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8774,23 +8858,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8799,23 +8883,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8824,23 +8908,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8849,23 +8933,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8874,23 +8958,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8899,23 +8983,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8924,19 +9008,19 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
@@ -8949,23 +9033,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8974,23 +9058,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8999,23 +9083,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9026,55 +9110,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-653-7821</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-638-4062</v>
+      </c>
+      <c r="F3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-482-1049</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-986-0170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-526-7382</v>
+      </c>
+      <c r="F6" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
